--- a/data/Full_Benchmark.xlsx
+++ b/data/Full_Benchmark.xlsx
@@ -5628,7 +5628,7 @@
         <v>182</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>183</v>
